--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject6.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject6.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.5736699744131637</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -164,7 +164,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" s="0">
         <v>0</v>
@@ -176,7 +176,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1" s="0">
         <v>0</v>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -203,10 +203,10 @@
         <v>0</v>
       </c>
       <c r="Z1" s="0">
-        <v>0</v>
+        <v>0.88168919904526533</v>
       </c>
       <c r="AA1" s="0">
-        <v>0</v>
+        <v>0.86907994869520633</v>
       </c>
       <c r="AB1" s="0">
         <v>0</v>
@@ -227,10 +227,10 @@
         <v>0</v>
       </c>
       <c r="AH1" s="0">
-        <v>0</v>
+        <v>0.68241871733602277</v>
       </c>
       <c r="AI1" s="0">
-        <v>0</v>
+        <v>0.94196899139128099</v>
       </c>
       <c r="AJ1" s="0">
         <v>0</v>
@@ -287,7 +287,7 @@
         <v>0</v>
       </c>
       <c r="BB1" s="0">
-        <v>0</v>
+        <v>0.97079998692500791</v>
       </c>
       <c r="BC1" s="0">
         <v>0</v>
@@ -296,7 +296,7 @@
         <v>0</v>
       </c>
       <c r="BE1" s="0">
-        <v>0</v>
+        <v>0.65873379177500491</v>
       </c>
       <c r="BF1" s="0">
         <v>0</v>
@@ -323,10 +323,10 @@
         <v>0</v>
       </c>
       <c r="BN1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.62771761794613223</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.95991976981970684</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -352,7 +352,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0">
         <v>0</v>
@@ -406,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="0">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="0">
-        <v>0</v>
+        <v>0.61292689962560887</v>
       </c>
       <c r="AF2" s="0">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="0">
         <v>0</v>
@@ -475,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="AV2" s="0">
-        <v>0</v>
+        <v>0.87159611372918877</v>
       </c>
       <c r="AW2" s="0">
         <v>0</v>
       </c>
       <c r="AX2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="0">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0</v>
+        <v>0.58243508171484604</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.976241462136751</v>
       </c>
       <c r="BM2" s="0">
-        <v>0</v>
+        <v>0.85407755698835452</v>
       </c>
       <c r="BN2" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>0</v>
+        <v>0.78174754658079104</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>0</v>
+        <v>0.93113871392950243</v>
       </c>
       <c r="AU3" s="0">
-        <v>0</v>
+        <v>0.60418230551912389</v>
       </c>
       <c r="AV3" s="0">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="BE3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -803,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>0</v>
+        <v>0.54253851156727417</v>
       </c>
       <c r="U4" s="0">
         <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>0</v>
+        <v>0.88847757037287001</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="0">
-        <v>0</v>
+        <v>0.89751086990388773</v>
       </c>
       <c r="AG4" s="0">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="0">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="V5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="0">
         <v>0</v>
@@ -1039,13 +1039,13 @@
         <v>0</v>
       </c>
       <c r="AD5" s="0">
-        <v>0</v>
+        <v>0.66639820956013418</v>
       </c>
       <c r="AE5" s="0">
-        <v>0</v>
+        <v>0.51887600512650622</v>
       </c>
       <c r="AF5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="BE5" s="0">
-        <v>0</v>
+        <v>0.7641482459040545</v>
       </c>
       <c r="BF5" s="0">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" s="0">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="0">
-        <v>0</v>
+        <v>0.69339805383956488</v>
       </c>
     </row>
     <row r="6">
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="0">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>0</v>
+        <v>0.73052134576844607</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>0</v>
+        <v>0.68684519619794682</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0</v>
+        <v>0.71235566961903141</v>
       </c>
       <c r="BA6" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="0">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="0">
-        <v>0</v>
+        <v>0.61370651530663778</v>
       </c>
       <c r="AB7" s="0">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="0">
-        <v>0</v>
+        <v>0.72732604125756173</v>
       </c>
       <c r="AX7" s="0">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="0">
-        <v>0</v>
+        <v>0.83643338604652517</v>
       </c>
       <c r="BL7" s="0">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="0">
-        <v>0</v>
+        <v>0.73751271577716504</v>
       </c>
     </row>
     <row r="8">
@@ -1588,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.9266718365048181</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.90384036773793897</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>0</v>
+        <v>0.51877448227348655</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="0">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="0">
-        <v>0</v>
+        <v>0.89926629707459704</v>
       </c>
       <c r="BB8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.64286277421613525</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="0">
-        <v>0</v>
+        <v>0.80933802812260014</v>
       </c>
       <c r="N9" s="0">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>0</v>
+        <v>0.79681497779237409</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>0</v>
+        <v>0.51589290876795935</v>
       </c>
       <c r="AE9" s="0">
-        <v>1</v>
+        <v>0.85088262165380379</v>
       </c>
       <c r="AF9" s="0">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="0">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="0">
-        <v>1</v>
+        <v>0.84768506165828306</v>
       </c>
       <c r="AS9" s="0">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="AY9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="0">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.87445874470928353</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.99682583520566492</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>0</v>
+        <v>0.62517003479192934</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="0">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="0">
-        <v>0</v>
+        <v>0.65356820306350871</v>
       </c>
       <c r="AO10" s="0">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="0">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0</v>
+        <v>0.72243225772806996</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="0">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="0">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="0">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="BL11" s="0">
-        <v>0</v>
+        <v>0.81650424107506425</v>
       </c>
       <c r="BM11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.8699638381637852</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.50571897890579309</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="BK12" s="0">
-        <v>0</v>
+        <v>0.92598967772275176</v>
       </c>
       <c r="BL12" s="0">
         <v>0</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>0</v>
+        <v>0.5115381504947516</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="0">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>0</v>
+        <v>0.50145855069519607</v>
       </c>
       <c r="AH13" s="0">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="BH13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.9073373489074037</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.82069233568954347</v>
       </c>
       <c r="Q14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="0">
         <v>0</v>
@@ -2863,19 +2863,19 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="0">
         <v>0</v>
       </c>
       <c r="V14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="0">
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="BM14" s="0">
-        <v>0</v>
+        <v>0.91773194242302814</v>
       </c>
       <c r="BN14" s="0">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>0.99656285882594542</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="0">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="0">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>0</v>
+        <v>0.53777528529956764</v>
       </c>
       <c r="AE15" s="0">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AM15" s="0">
-        <v>0</v>
+        <v>0.9493746452466959</v>
       </c>
       <c r="AN15" s="0">
         <v>0</v>
@@ -3138,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="0">
-        <v>0</v>
+        <v>0.59577771355550979</v>
       </c>
       <c r="AR15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="0">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="AV15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>0</v>
+        <v>0.53415633787521521</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.69662605931365618</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="0">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="0">
-        <v>0</v>
+        <v>0.99677071804198458</v>
       </c>
       <c r="AK16" s="0">
         <v>0</v>
       </c>
       <c r="AL16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="0">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="BH16" s="0">
-        <v>0</v>
+        <v>0.8021266356174237</v>
       </c>
       <c r="BI16" s="0">
-        <v>0</v>
+        <v>0.79276058462745957</v>
       </c>
       <c r="BJ16" s="0">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="BM16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" s="0">
         <v>0</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="0">
-        <v>0</v>
+        <v>0.96025591203917982</v>
       </c>
       <c r="AM17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AY17" s="0">
-        <v>0</v>
+        <v>0.61412833171173675</v>
       </c>
       <c r="AZ17" s="0">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="0">
-        <v>0</v>
+        <v>0.86264450663757963</v>
       </c>
       <c r="BL17" s="0">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="0">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="0">
-        <v>0</v>
+        <v>0.51258616869759188</v>
       </c>
       <c r="AG18" s="0">
-        <v>0</v>
+        <v>0.88981614037001555</v>
       </c>
       <c r="AH18" s="0">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="0">
-        <v>0</v>
+        <v>0.8610757846318835</v>
       </c>
       <c r="AL18" s="0">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="0">
-        <v>0</v>
+        <v>0.87912825850374632</v>
       </c>
       <c r="AR18" s="0">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="0">
-        <v>0</v>
+        <v>0.70168994343982627</v>
       </c>
       <c r="BB18" s="0">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>0</v>
+        <v>0.74365967189862359</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -3887,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.59906890198867957</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>0</v>
+        <v>0.75924255959363218</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0</v>
+        <v>0.92271409166143048</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="BN19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO19" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>0</v>
+        <v>0.65440092083640122</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0</v>
+        <v>0.56975037254135319</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4081,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.8673822094405943</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>0</v>
+        <v>0.99963817815079925</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="0">
-        <v>0</v>
+        <v>0.76791238373627912</v>
       </c>
       <c r="BE20" s="0">
         <v>0</v>
@@ -4314,13 +4314,13 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.8627887213550911</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
       </c>
       <c r="Y21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>0</v>
+        <v>0.93257637833976048</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="0">
-        <v>0</v>
+        <v>0.86517113324668837</v>
       </c>
       <c r="AI21" s="0">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="BL21" s="0">
-        <v>0</v>
+        <v>0.525475266194946</v>
       </c>
       <c r="BM21" s="0">
         <v>0</v>
@@ -4463,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>0</v>
+        <v>0.92244748101769891</v>
       </c>
       <c r="E22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0">
         <v>0</v>
@@ -4478,22 +4478,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="0">
-        <v>0</v>
+        <v>0.87686217600983807</v>
       </c>
       <c r="J22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="0">
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.52725028215116221</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4547,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="AF22" s="0">
-        <v>0</v>
+        <v>0.96288459149571559</v>
       </c>
       <c r="AG22" s="0">
-        <v>0</v>
+        <v>0.54492050974947748</v>
       </c>
       <c r="AH22" s="0">
         <v>0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BA22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="0">
         <v>0</v>
       </c>
       <c r="BC22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="0">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="BF22" s="0">
-        <v>0</v>
+        <v>0.79433159237019924</v>
       </c>
       <c r="BG22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>0</v>
+        <v>0.68726919276231213</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.89691353084840686</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.85391851107748884</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="AO23" s="0">
-        <v>0</v>
+        <v>0.57422809929945806</v>
       </c>
       <c r="AP23" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>0</v>
+        <v>0.57457674009127824</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="0">
-        <v>0</v>
+        <v>0.60718692652737416</v>
       </c>
       <c r="BA23" s="0">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0</v>
+        <v>0.75458706801749109</v>
       </c>
     </row>
     <row r="24">
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -4971,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="0">
-        <v>0</v>
+        <v>0.51796579295811007</v>
       </c>
       <c r="AK24" s="0">
-        <v>0</v>
+        <v>0.96412795474418544</v>
       </c>
       <c r="AL24" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>0</v>
+        <v>0.65720018485408693</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.95796129494590954</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5174,10 +5174,10 @@
         <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>0</v>
+        <v>0.64488149464127698</v>
       </c>
       <c r="AJ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="BB25" s="0">
-        <v>0</v>
+        <v>0.57597820681969747</v>
       </c>
       <c r="BC25" s="0">
         <v>0</v>
@@ -5243,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="BF25" s="0">
-        <v>0</v>
+        <v>0.63292861108839504</v>
       </c>
       <c r="BG25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH25" s="0">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0</v>
+        <v>0.81371571757297612</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -5374,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="AG26" s="0">
-        <v>0</v>
+        <v>0.74191263006755825</v>
       </c>
       <c r="AH26" s="0">
         <v>0</v>
       </c>
       <c r="AI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0</v>
+        <v>0.98085046059712833</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>0</v>
+        <v>0.96483776852120118</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.62278144007148928</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="0">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="BB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="0">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="0">
-        <v>0</v>
+        <v>0.92203902636231549</v>
       </c>
       <c r="V28" s="0">
         <v>0</v>
@@ -5768,13 +5768,13 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.99283767035006654</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="0">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>0</v>
+        <v>0.8974640501488701</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5977,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.52317809227653989</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6013,13 +6013,13 @@
         <v>0</v>
       </c>
       <c r="AN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="0">
         <v>0</v>
       </c>
       <c r="AP29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0</v>
+        <v>0.52275198092818997</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6114,25 +6114,25 @@
         <v>0</v>
       </c>
       <c r="E30" s="0">
-        <v>0</v>
+        <v>0.65637447418342898</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
       </c>
       <c r="G30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
       </c>
       <c r="I30" s="0">
-        <v>0</v>
+        <v>0.95143292880983554</v>
       </c>
       <c r="J30" s="0">
         <v>0</v>
       </c>
       <c r="K30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="0">
         <v>0</v>
@@ -6141,10 +6141,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="0">
-        <v>0</v>
+        <v>0.82553508876880377</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="AM30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="0">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="0">
-        <v>0</v>
+        <v>0.62638092938739032</v>
       </c>
       <c r="AZ30" s="0">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
+        <v>0.7506567917394763</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="0">
-        <v>0</v>
+        <v>0.7092265982583339</v>
       </c>
       <c r="F31" s="0">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="0">
-        <v>1</v>
+        <v>0.55199240921847381</v>
       </c>
       <c r="J31" s="0">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="0">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="AW31" s="0">
-        <v>0</v>
+        <v>0.94676318168206675</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>0</v>
+        <v>0.89555979074318803</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6523,10 +6523,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="0">
-        <v>0</v>
+        <v>0.98462814948436594</v>
       </c>
       <c r="E32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="0">
         <v>0</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="0">
-        <v>0</v>
+        <v>0.535403455510715</v>
       </c>
       <c r="S32" s="0">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="0">
-        <v>0</v>
+        <v>0.60496785878573944</v>
       </c>
       <c r="W32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.85135729681025951</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="0">
         <v>0</v>
@@ -6634,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0</v>
+        <v>0.67011135805325217</v>
       </c>
       <c r="AP32" s="0">
-        <v>0</v>
+        <v>0.68637732643399718</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="AU32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="0">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="0">
         <v>0</v>
@@ -6750,13 +6750,13 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>0</v>
+        <v>0.79690810266863021</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="0">
-        <v>0</v>
+        <v>0.77416718739173418</v>
       </c>
       <c r="S33" s="0">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="0">
-        <v>0</v>
+        <v>0.77276300400083553</v>
       </c>
       <c r="W33" s="0">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="0">
-        <v>0</v>
+        <v>0.78825967963918742</v>
       </c>
       <c r="AA33" s="0">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="0">
-        <v>0</v>
+        <v>0.74736357809848408</v>
       </c>
       <c r="BA33" s="0">
         <v>0</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0</v>
+        <v>0.83147037874169105</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>0</v>
+        <v>0.53905706255385932</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>0</v>
+        <v>0.77388398529211122</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.50673651857228075</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>0</v>
+        <v>0.75176403391456881</v>
       </c>
       <c r="AX34" s="0">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="BA34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="0">
         <v>0</v>
@@ -7100,10 +7100,10 @@
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0</v>
+        <v>0.57043579630955998</v>
       </c>
       <c r="BH34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI34" s="0">
         <v>0</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0</v>
+        <v>0.93614166444612401</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -7204,10 +7204,10 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>0</v>
+        <v>0.71480309712001566</v>
       </c>
       <c r="Z35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="0">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="0">
-        <v>0</v>
+        <v>0.51880056738047597</v>
       </c>
       <c r="Q36" s="0">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="0">
         <v>0</v>
@@ -7407,10 +7407,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="0">
-        <v>0</v>
+        <v>0.54531743015827661</v>
       </c>
       <c r="Y36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="0">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.98556443340881739</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7482,13 +7482,13 @@
         <v>0</v>
       </c>
       <c r="AW36" s="0">
-        <v>0</v>
+        <v>0.61427320832481058</v>
       </c>
       <c r="AX36" s="0">
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>1</v>
+        <v>0.66248809396463826</v>
       </c>
       <c r="AZ36" s="0">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="0">
-        <v>0</v>
+        <v>0.8411838028673474</v>
       </c>
       <c r="BO36" s="0">
         <v>0</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="0">
-        <v>0</v>
+        <v>0.68105207524965627</v>
       </c>
       <c r="S37" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>0</v>
+        <v>0.84724711248660178</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.80258830457209229</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="0">
         <v>0</v>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="AX37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="0">
         <v>0</v>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="BG37" s="0">
-        <v>0</v>
+        <v>0.51618451934089882</v>
       </c>
       <c r="BH37" s="0">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="BO37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP37" s="0">
         <v>0</v>
@@ -7795,10 +7795,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0</v>
+        <v>0.98105192241968631</v>
       </c>
       <c r="R38" s="0">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0</v>
+        <v>0.55889492285723452</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="AX38" s="0">
-        <v>0</v>
+        <v>0.96874116160289137</v>
       </c>
       <c r="AY38" s="0">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="0">
         <v>0</v>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="0">
-        <v>0</v>
+        <v>0.96252250563021879</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="0">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.60982888674337365</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="BD39" s="0">
-        <v>0</v>
+        <v>0.82358842522109543</v>
       </c>
       <c r="BE39" s="0">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0">
-        <v>0</v>
+        <v>0.5944815114855122</v>
       </c>
       <c r="K40" s="0">
         <v>0</v>
@@ -8246,13 +8246,13 @@
         <v>0</v>
       </c>
       <c r="AC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="0">
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="AT40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="0">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="AY40" s="0">
-        <v>0</v>
+        <v>0.86815704761491252</v>
       </c>
       <c r="AZ40" s="0">
         <v>0</v>
       </c>
       <c r="BA40" s="0">
-        <v>0</v>
+        <v>0.93437624470190594</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="BG40" s="0">
-        <v>0</v>
+        <v>0.75796304141242943</v>
       </c>
       <c r="BH40" s="0">
         <v>0</v>
@@ -8416,13 +8416,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>0</v>
+        <v>0.56212469357610795</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="0">
-        <v>0</v>
+        <v>0.80906432264080674</v>
       </c>
       <c r="X41" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0</v>
+        <v>0.52499060006465026</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="0">
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.76023152326660715</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="BL41" s="0">
-        <v>0</v>
+        <v>0.5136418531639092</v>
       </c>
       <c r="BM41" s="0">
         <v>0</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD42" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0</v>
+        <v>0.82733204831268914</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>0</v>
+        <v>0.96265735959168519</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="AT42" s="0">
-        <v>0</v>
+        <v>0.89037114145116181</v>
       </c>
       <c r="AU42" s="0">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>0</v>
+        <v>0.53008230548786228</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="BC42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD42" s="0">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="BP42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="0">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="0">
-        <v>0</v>
+        <v>0.55203652177941243</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>0</v>
+        <v>0.55512485734676531</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="AX43" s="0">
-        <v>0</v>
+        <v>0.88156081985337287</v>
       </c>
       <c r="AY43" s="0">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="BO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP43" s="0">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>1</v>
+        <v>0.81895531693915102</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>0</v>
+        <v>0.95170530081573101</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.77867257389763322</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="BB44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC44" s="0">
         <v>0</v>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.69720448432155901</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="0">
         <v>0</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="BE45" s="0">
-        <v>0</v>
+        <v>0.61763952486062457</v>
       </c>
       <c r="BF45" s="0">
         <v>0</v>
@@ -9372,10 +9372,10 @@
         <v>0</v>
       </c>
       <c r="BI45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK45" s="0">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="C46" s="0">
-        <v>0</v>
+        <v>0.75924084538484982</v>
       </c>
       <c r="D46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -9515,13 +9515,13 @@
         <v>0</v>
       </c>
       <c r="AN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="0">
         <v>0</v>
       </c>
       <c r="AP46" s="0">
-        <v>0</v>
+        <v>0.71472013276439372</v>
       </c>
       <c r="AQ46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.66468496465753346</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="BF46" s="0">
-        <v>0</v>
+        <v>0.54104290658180043</v>
       </c>
       <c r="BG46" s="0">
         <v>0</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="0">
-        <v>0</v>
+        <v>0.77022442182313344</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>0</v>
+        <v>0.71908111996352142</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.80869036232059344</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.63060423223321749</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.90706103142396555</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BC47" s="0">
-        <v>0</v>
+        <v>0.99429476067658218</v>
       </c>
       <c r="BD47" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>0</v>
+        <v>0.73087421378009176</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="0">
-        <v>0</v>
+        <v>0.90304343121070085</v>
       </c>
       <c r="C48" s="0">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0</v>
+        <v>0.87236263089085719</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9942,19 +9942,19 @@
         <v>0</v>
       </c>
       <c r="AS48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="0">
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.50347553058327388</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="BJ48" s="0">
-        <v>0</v>
+        <v>0.99091488244356352</v>
       </c>
       <c r="BK48" s="0">
         <v>0</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0">
-        <v>0</v>
+        <v>0.96613776097583814</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>0</v>
+        <v>0.87325173221155705</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="AH49" s="0">
-        <v>0</v>
+        <v>0.90637606056650577</v>
       </c>
       <c r="AI49" s="0">
         <v>0</v>
       </c>
       <c r="AJ49" s="0">
-        <v>0</v>
+        <v>0.59791021351385831</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.59104818305913542</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="BI49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ49" s="0">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0">
         <v>0</v>
@@ -10330,10 +10330,10 @@
         <v>0</v>
       </c>
       <c r="AK50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="0">
-        <v>0</v>
+        <v>0.53339204789385453</v>
       </c>
       <c r="AM50" s="0">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="0">
-        <v>0</v>
+        <v>0.73543970695143723</v>
       </c>
       <c r="AR50" s="0">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>0</v>
+        <v>0.96867377715060821</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="0">
         <v>0</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0</v>
+        <v>0.53690129495141337</v>
       </c>
       <c r="R51" s="0">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="0">
-        <v>0</v>
+        <v>0.55476834302695543</v>
       </c>
       <c r="AE51" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>1</v>
+        <v>0.62529455564260117</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="0">
-        <v>0</v>
+        <v>0.50596334713318425</v>
       </c>
       <c r="AO51" s="0">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="BD51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE51" s="0">
         <v>0</v>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="0">
-        <v>0</v>
+        <v>0.90587327298011355</v>
       </c>
       <c r="G52" s="0">
         <v>0</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="0">
-        <v>0</v>
+        <v>0.82328822631810772</v>
       </c>
       <c r="X52" s="0">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AG52" s="0">
-        <v>0</v>
+        <v>0.61341730346244949</v>
       </c>
       <c r="AH52" s="0">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN52" s="0">
         <v>0</v>
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="0">
-        <v>0</v>
+        <v>0.74865098482743586</v>
       </c>
       <c r="AQ52" s="0">
         <v>0</v>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="BH52" s="0">
-        <v>0</v>
+        <v>0.71843930691871027</v>
       </c>
       <c r="BI52" s="0">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="BO52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP52" s="0">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>0</v>
+        <v>0.62310135633101305</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -10891,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="0">
-        <v>0</v>
+        <v>0.57460615054902076</v>
       </c>
       <c r="S53" s="0">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53" s="0">
         <v>0</v>
@@ -10939,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="AH53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="0">
         <v>0</v>
@@ -10951,13 +10951,13 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>0</v>
+        <v>0.53035439972049647</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="BF53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG53" s="0">
-        <v>0</v>
+        <v>0.57865446918490715</v>
       </c>
       <c r="BH53" s="0">
         <v>0</v>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0</v>
+        <v>0.51242729816686428</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -11118,13 +11118,13 @@
         <v>0</v>
       </c>
       <c r="Y54" s="0">
-        <v>0</v>
+        <v>0.81970673566671715</v>
       </c>
       <c r="Z54" s="0">
         <v>0</v>
       </c>
       <c r="AA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="0">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="AR54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="0">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="BP54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" s="0">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="AP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>0</v>
+        <v>0.6019337454022301</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="BF55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG55" s="0">
         <v>0</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="BO55" s="0">
-        <v>1</v>
+        <v>0.68214337256294089</v>
       </c>
       <c r="BP55" s="0">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>0</v>
+        <v>0.69796592108730948</v>
       </c>
       <c r="U56" s="0">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="0">
-        <v>0</v>
+        <v>0.73384039840248549</v>
       </c>
       <c r="AN56" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.66280638165975247</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="BM56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN56" s="0">
         <v>0</v>
@@ -11664,22 +11664,22 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0</v>
+        <v>0.80527036510961825</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
       </c>
       <c r="C57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
       </c>
       <c r="E57" s="0">
-        <v>0</v>
+        <v>0.96653699472827892</v>
       </c>
       <c r="F57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>0</v>
+        <v>0.68429644861750227</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="0">
-        <v>0</v>
+        <v>0.70940758167916784</v>
       </c>
       <c r="AT57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="0">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="0">
-        <v>0</v>
+        <v>0.92545164729351059</v>
       </c>
       <c r="W58" s="0">
         <v>0</v>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>0</v>
+        <v>0.89613500032509408</v>
       </c>
       <c r="Z58" s="0">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="AT58" s="0">
-        <v>0</v>
+        <v>0.8813777594929888</v>
       </c>
       <c r="AU58" s="0">
         <v>0</v>
@@ -12026,16 +12026,16 @@
         <v>0</v>
       </c>
       <c r="BA58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="0">
         <v>0</v>
       </c>
       <c r="BC58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.77362073465324221</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="0">
         <v>0</v>
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0</v>
+        <v>0.86763954302225543</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="0">
-        <v>0</v>
+        <v>0.67006080110773336</v>
       </c>
       <c r="AL59" s="0">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="AN59" s="0">
-        <v>0</v>
+        <v>0.6087757492882615</v>
       </c>
       <c r="AO59" s="0">
         <v>0</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="0">
-        <v>0</v>
+        <v>0.87625060520719489</v>
       </c>
       <c r="BB59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="0">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="0">
-        <v>0</v>
+        <v>0.72512289398201368</v>
       </c>
       <c r="Q60" s="0">
         <v>0</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="AZ60" s="0">
-        <v>0</v>
+        <v>0.75926510840963335</v>
       </c>
       <c r="BA60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="0">
-        <v>0</v>
+        <v>0.89163168649589497</v>
       </c>
       <c r="Q61" s="0">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="0">
         <v>0</v>
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="0">
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="AW61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="0">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.93267346647763227</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.91554353474077277</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="BN61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0</v>
+        <v>0.59085243308700441</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -12826,16 +12826,16 @@
         <v>0</v>
       </c>
       <c r="AS62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="0">
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>0</v>
+        <v>0.6809870526808024</v>
       </c>
       <c r="AV62" s="0">
-        <v>0</v>
+        <v>0.82254374350104675</v>
       </c>
       <c r="AW62" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.54928276997979675</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.74156968860262862</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12903,22 +12903,22 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>0</v>
+        <v>0.84379677820922372</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
       </c>
       <c r="D63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="0">
         <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="0">
-        <v>0</v>
+        <v>0.87265710627430115</v>
       </c>
       <c r="H63" s="0">
         <v>0</v>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="0">
-        <v>0</v>
+        <v>0.78424121958547843</v>
       </c>
       <c r="M63" s="0">
         <v>0</v>
@@ -12948,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>0</v>
+        <v>0.94120616421081138</v>
       </c>
       <c r="R63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.88315810104683568</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.66842731450208981</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.61864312954045353</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13133,10 +13133,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>0</v>
+        <v>0.55876070510067488</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="0">
-        <v>0</v>
+        <v>0.61805947912757997</v>
       </c>
       <c r="V64" s="0">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>0</v>
+        <v>0.94073564589696357</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="AO64" s="0">
-        <v>0</v>
+        <v>0.59199789896074329</v>
       </c>
       <c r="AP64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.96149430280741632</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>0</v>
+        <v>0.66386492044076562</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13351,13 +13351,13 @@
         <v>0</v>
       </c>
       <c r="N65" s="0">
-        <v>0</v>
+        <v>0.76071206518554191</v>
       </c>
       <c r="O65" s="0">
         <v>0</v>
       </c>
       <c r="P65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="BD65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.78160487768006404</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.64856284287523747</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13518,7 +13518,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" s="0">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="0">
         <v>0</v>
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="0">
         <v>0</v>
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="0">
-        <v>0</v>
+        <v>0.93711100860192098</v>
       </c>
       <c r="AK66" s="0">
         <v>0</v>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="BI66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.9512864376028709</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,12 +13719,12 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.74445071798592799</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.93839421162811698</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>0</v>
+        <v>0.74802842996796248</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>0</v>
+        <v>0.59680920246957636</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="0">
         <v>0</v>
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR67" s="0">
         <v>0</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA67" s="0">
         <v>0</v>
@@ -13886,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="BC67" s="0">
-        <v>1</v>
+        <v>0.8380864353578944</v>
       </c>
       <c r="BD67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -13942,13 +13942,13 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0</v>
+        <v>0.88588523382743689</v>
       </c>
       <c r="F68" s="0">
         <v>0</v>
       </c>
       <c r="G68" s="0">
-        <v>0</v>
+        <v>0.8720803951692192</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="0">
-        <v>0</v>
+        <v>0.85691801030710668</v>
       </c>
       <c r="X68" s="0">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="0">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.64243601840661246</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject6.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject6.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.5736699744131637</v>
+        <v>0.95991976981970684</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -206,7 +206,7 @@
         <v>0.88168919904526533</v>
       </c>
       <c r="AA1" s="0">
-        <v>0.86907994869520633</v>
+        <v>0.98085046059712833</v>
       </c>
       <c r="AB1" s="0">
         <v>0</v>
@@ -227,7 +227,7 @@
         <v>0</v>
       </c>
       <c r="AH1" s="0">
-        <v>0.68241871733602277</v>
+        <v>0.83147037874169105</v>
       </c>
       <c r="AI1" s="0">
         <v>0.94196899139128099</v>
@@ -296,7 +296,7 @@
         <v>0</v>
       </c>
       <c r="BE1" s="0">
-        <v>0.65873379177500491</v>
+        <v>0.80527036510961825</v>
       </c>
       <c r="BF1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.62771761794613223</v>
+        <v>0.93839421162811698</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="0">
-        <v>0.61292689962560887</v>
+        <v>0.7506567917394763</v>
       </c>
       <c r="AF2" s="0">
         <v>0</v>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="AV2" s="0">
-        <v>0.87159611372918877</v>
+        <v>0.90304343121070085</v>
       </c>
       <c r="AW2" s="0">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0.58243508171484604</v>
+        <v>0.84379677820922372</v>
       </c>
       <c r="BL2" s="0">
         <v>0.976241462136751</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>0.78174754658079104</v>
+        <v>0.99656285882594542</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0.93113871392950243</v>
       </c>
       <c r="AU3" s="0">
-        <v>0.60418230551912389</v>
+        <v>0.77022442182313344</v>
       </c>
       <c r="AV3" s="0">
         <v>0</v>
@@ -803,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>0.54253851156727417</v>
+        <v>0.65440092083640122</v>
       </c>
       <c r="U4" s="0">
         <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>0.88847757037287001</v>
+        <v>0.92244748101769891</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="0">
-        <v>0.89751086990388773</v>
+        <v>0.98462814948436594</v>
       </c>
       <c r="AG4" s="0">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0.66639820956013418</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.51887600512650622</v>
+        <v>0.7092265982583339</v>
       </c>
       <c r="AF5" s="0">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="BE5" s="0">
-        <v>0.7641482459040545</v>
+        <v>0.96653699472827892</v>
       </c>
       <c r="BF5" s="0">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="0">
-        <v>0.69339805383956488</v>
+        <v>0.88588523382743689</v>
       </c>
     </row>
     <row r="6">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.73052134576844607</v>
+        <v>0.8974640501488701</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>0.68684519619794682</v>
+        <v>0.96867377715060821</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0.71235566961903141</v>
+        <v>0.90587327298011355</v>
       </c>
       <c r="BA6" s="0">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.61370651530663778</v>
+        <v>0.96483776852120118</v>
       </c>
       <c r="AB7" s="0">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="0">
-        <v>0.72732604125756173</v>
+        <v>0.96613776097583814</v>
       </c>
       <c r="AX7" s="0">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="0">
-        <v>0.83643338604652517</v>
+        <v>0.87265710627430115</v>
       </c>
       <c r="BL7" s="0">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="0">
-        <v>0.73751271577716504</v>
+        <v>0.8720803951692192</v>
       </c>
     </row>
     <row r="8">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.51877448227348655</v>
+        <v>0.53905706255385932</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0.64286277421613525</v>
+        <v>0.9266718365048181</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>0.79681497779237409</v>
+        <v>0.87686217600983807</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.51589290876795935</v>
+        <v>0.95143292880983554</v>
       </c>
       <c r="AE9" s="0">
         <v>0.85088262165380379</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.87445874470928353</v>
+        <v>0.90384036773793897</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>0.62517003479192934</v>
+        <v>0.74365967189862359</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.8699638381637852</v>
+        <v>0.99682583520566492</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.50571897890579309</v>
+        <v>0.9073373489074037</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>0.5115381504947516</v>
+        <v>0.80933802812260014</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>0.50145855069519607</v>
+        <v>0.79690810266863021</v>
       </c>
       <c r="AH13" s="0">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.53777528529956764</v>
+        <v>0.82553508876880377</v>
       </c>
       <c r="AE15" s="0">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AM15" s="0">
-        <v>0.9493746452466959</v>
+        <v>0.96252250563021879</v>
       </c>
       <c r="AN15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>0.53415633787521521</v>
+        <v>0.59085243308700441</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.69662605931365618</v>
+        <v>0.82069233568954347</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0.8021266356174237</v>
       </c>
       <c r="BI16" s="0">
-        <v>0.79276058462745957</v>
+        <v>0.89163168649589497</v>
       </c>
       <c r="BJ16" s="0">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.96025591203917982</v>
+        <v>0.98105192241968631</v>
       </c>
       <c r="AM17" s="0">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="0">
-        <v>0.86264450663757963</v>
+        <v>0.94120616421081138</v>
       </c>
       <c r="BL17" s="0">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="0">
-        <v>0.51258616869759188</v>
+        <v>0.535403455510715</v>
       </c>
       <c r="AG18" s="0">
         <v>0.88981614037001555</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.59906890198867957</v>
+        <v>0.8673822094405943</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0.56975037254135319</v>
+        <v>0.72243225772806996</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.8627887213550911</v>
+        <v>0.89691353084840686</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="BL21" s="0">
-        <v>0.525475266194946</v>
+        <v>0.61805947912757997</v>
       </c>
       <c r="BM21" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.52725028215116221</v>
+        <v>0.85391851107748884</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0.96288459149571559</v>
       </c>
       <c r="AG22" s="0">
-        <v>0.54492050974947748</v>
+        <v>0.77276300400083553</v>
       </c>
       <c r="AH22" s="0">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="BF22" s="0">
-        <v>0.79433159237019924</v>
+        <v>0.92545164729351059</v>
       </c>
       <c r="BG22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>0.68726919276231213</v>
+        <v>0.74802842996796248</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="AO23" s="0">
-        <v>0.57422809929945806</v>
+        <v>0.80906432264080674</v>
       </c>
       <c r="AP23" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>0.57457674009127824</v>
+        <v>0.71908111996352142</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="0">
-        <v>0.60718692652737416</v>
+        <v>0.82328822631810772</v>
       </c>
       <c r="BA23" s="0">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0.75458706801749109</v>
+        <v>0.85691801030710668</v>
       </c>
     </row>
     <row r="24">
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="0">
-        <v>0.51796579295811007</v>
+        <v>0.54531743015827661</v>
       </c>
       <c r="AK24" s="0">
         <v>0.96412795474418544</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>0.65720018485408693</v>
+        <v>0.68429644861750227</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>0.64488149464127698</v>
+        <v>0.71480309712001566</v>
       </c>
       <c r="AJ25" s="0">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="BB25" s="0">
-        <v>0.57597820681969747</v>
+        <v>0.81970673566671715</v>
       </c>
       <c r="BC25" s="0">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="0">
-        <v>0.63292861108839504</v>
+        <v>0.89613500032509408</v>
       </c>
       <c r="BG25" s="0">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.81371571757297612</v>
+        <v>0.88168919904526533</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="AG26" s="0">
-        <v>0.74191263006755825</v>
+        <v>0.78825967963918742</v>
       </c>
       <c r="AH26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.62278144007148928</v>
+        <v>0.95796129494590954</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="0">
-        <v>0.92203902636231549</v>
+        <v>0.93257637833976048</v>
       </c>
       <c r="V28" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.52317809227653989</v>
+        <v>0.99283767035006654</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0.52275198092818997</v>
+        <v>0.59680920246957636</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="0">
-        <v>0.65637447418342898</v>
+        <v>0.66639820956013418</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="0">
-        <v>0.55199240921847381</v>
+        <v>0.85088262165380379</v>
       </c>
       <c r="J31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>0.89555979074318803</v>
+        <v>0.94073564589696357</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="0">
-        <v>0.60496785878573944</v>
+        <v>0.96288459149571559</v>
       </c>
       <c r="W32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0.67011135805325217</v>
       </c>
       <c r="AP32" s="0">
-        <v>0.68637732643399718</v>
+        <v>0.82733204831268914</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="0">
-        <v>0.77416718739173418</v>
+        <v>0.88981614037001555</v>
       </c>
       <c r="S33" s="0">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>0.77388398529211122</v>
+        <v>0.86517113324668837</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.50673651857228075</v>
+        <v>0.85135729681025951</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>0.75176403391456881</v>
+        <v>0.90637606056650577</v>
       </c>
       <c r="AX34" s="0">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0.57043579630955998</v>
+        <v>0.86763954302225543</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.93614166444612401</v>
+        <v>0.94196899139128099</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="0">
-        <v>0.51880056738047597</v>
+        <v>0.99677071804198458</v>
       </c>
       <c r="Q36" s="0">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="0">
-        <v>0.8411838028673474</v>
+        <v>0.93711100860192098</v>
       </c>
       <c r="BO36" s="0">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="0">
-        <v>0.68105207524965627</v>
+        <v>0.8610757846318835</v>
       </c>
       <c r="S37" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>0.84724711248660178</v>
+        <v>0.96412795474418544</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.80258830457209229</v>
+        <v>0.98556443340881739</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="BG37" s="0">
-        <v>0.51618451934089882</v>
+        <v>0.67006080110773336</v>
       </c>
       <c r="BH37" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0.55889492285723452</v>
+        <v>0.96265735959168519</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.60982888674337365</v>
+        <v>0.76023152326660715</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="0">
-        <v>0.5944815114855122</v>
+        <v>0.65356820306350871</v>
       </c>
       <c r="K40" s="0">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>0.56212469357610795</v>
+        <v>0.75924255959363218</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0.52499060006465026</v>
+        <v>0.67011135805325217</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="BL41" s="0">
-        <v>0.5136418531639092</v>
+        <v>0.59199789896074329</v>
       </c>
       <c r="BM41" s="0">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>0.53008230548786228</v>
+        <v>0.74865098482743586</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="0">
-        <v>0.55203652177941243</v>
+        <v>0.59577771355550979</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0">
-        <v>0.55512485734676531</v>
+        <v>0.87912825850374632</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0.81895531693915102</v>
+        <v>0.84768506165828306</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>0.95170530081573101</v>
+        <v>0.99963817815079925</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.69720448432155901</v>
+        <v>0.77867257389763322</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="BE45" s="0">
-        <v>0.61763952486062457</v>
+        <v>0.70940758167916784</v>
       </c>
       <c r="BF45" s="0">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="0">
-        <v>0.75924084538484982</v>
+        <v>0.93113871392950243</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="0">
-        <v>0.71472013276439372</v>
+        <v>0.89037114145116181</v>
       </c>
       <c r="AQ46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.66468496465753346</v>
+        <v>0.80869036232059344</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="BF46" s="0">
-        <v>0.54104290658180043</v>
+        <v>0.8813777594929888</v>
       </c>
       <c r="BG46" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0.87236263089085719</v>
+        <v>0.92271409166143048</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.50347553058327388</v>
+        <v>0.63060423223321749</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>0.87325173221155705</v>
+        <v>0.94676318168206675</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="0">
-        <v>0.59791021351385831</v>
+        <v>0.61427320832481058</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.59104818305913542</v>
+        <v>0.90706103142396555</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="0">
-        <v>0.53339204789385453</v>
+        <v>0.96874116160289137</v>
       </c>
       <c r="AM50" s="0">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="0">
-        <v>0.73543970695143723</v>
+        <v>0.88156081985337287</v>
       </c>
       <c r="AR50" s="0">
         <v>0</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.53690129495141337</v>
+        <v>0.61412833171173675</v>
       </c>
       <c r="R51" s="0">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="0">
-        <v>0.55476834302695543</v>
+        <v>0.62638092938739032</v>
       </c>
       <c r="AE51" s="0">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>0.62529455564260117</v>
+        <v>0.66248809396463826</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="0">
-        <v>0.50596334713318425</v>
+        <v>0.86815704761491252</v>
       </c>
       <c r="AO51" s="0">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="AG52" s="0">
-        <v>0.61341730346244949</v>
+        <v>0.74736357809848408</v>
       </c>
       <c r="AH52" s="0">
         <v>0</v>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="BH52" s="0">
-        <v>0.71843930691871027</v>
+        <v>0.75926510840963335</v>
       </c>
       <c r="BI52" s="0">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>0.62310135633101305</v>
+        <v>0.89926629707459704</v>
       </c>
       <c r="I53" s="0">
         <v>0</v>
@@ -10891,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="0">
-        <v>0.57460615054902076</v>
+        <v>0.70168994343982627</v>
       </c>
       <c r="S53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>0.53035439972049647</v>
+        <v>0.93437624470190594</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="BG53" s="0">
-        <v>0.57865446918490715</v>
+        <v>0.87625060520719489</v>
       </c>
       <c r="BH53" s="0">
         <v>0</v>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.51242729816686428</v>
+        <v>0.97079998692500791</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>0.6019337454022301</v>
+        <v>0.99429476067658218</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="BO55" s="0">
-        <v>0.68214337256294089</v>
+        <v>0.8380864353578944</v>
       </c>
       <c r="BP55" s="0">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>0.69796592108730948</v>
+        <v>0.76791238373627912</v>
       </c>
       <c r="U56" s="0">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="0">
-        <v>0.73384039840248549</v>
+        <v>0.82358842522109543</v>
       </c>
       <c r="AN56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.66280638165975247</v>
+        <v>0.77362073465324221</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="AN59" s="0">
-        <v>0.6087757492882615</v>
+        <v>0.75796304141242943</v>
       </c>
       <c r="AO59" s="0">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="0">
-        <v>0.72512289398201368</v>
+        <v>0.8021266356174237</v>
       </c>
       <c r="Q60" s="0">
         <v>0</v>
@@ -12832,10 +12832,10 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>0.6809870526808024</v>
+        <v>0.73087421378009176</v>
       </c>
       <c r="AV62" s="0">
-        <v>0.82254374350104675</v>
+        <v>0.99091488244356352</v>
       </c>
       <c r="AW62" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.54928276997979675</v>
+        <v>0.93267346647763227</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.74156968860262862</v>
+        <v>0.96149430280741632</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="0">
-        <v>0.78424121958547843</v>
+        <v>0.92598967772275176</v>
       </c>
       <c r="M63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.88315810104683568</v>
+        <v>0.91554353474077277</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.66842731450208981</v>
+        <v>0.78160487768006404</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0.61864312954045353</v>
+        <v>0.976241462136751</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>0.55876070510067488</v>
+        <v>0.81650424107506425</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>0.66386492044076562</v>
+        <v>0.85407755698835452</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="0">
-        <v>0.76071206518554191</v>
+        <v>0.91773194242302814</v>
       </c>
       <c r="O65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.64856284287523747</v>
+        <v>0.9512864376028709</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.64243601840661246</v>
+        <v>0.74445071798592799</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>
